--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3766.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3766.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314378845307343</v>
+        <v>1.683470726013184</v>
       </c>
       <c r="B1">
-        <v>2.618868040356098</v>
+        <v>1.518706083297729</v>
       </c>
       <c r="C1">
-        <v>3.588915054173816</v>
+        <v>5.441577434539795</v>
       </c>
       <c r="D1">
-        <v>4.202309160837747</v>
+        <v>1.493814468383789</v>
       </c>
       <c r="E1">
-        <v>1.200114256241881</v>
+        <v>0.9092687368392944</v>
       </c>
     </row>
   </sheetData>
